--- a/SpeedProperties.xlsx
+++ b/SpeedProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legos\Py2DFDTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87306E8C-DE14-4652-8B48-D684F01CFE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD280CA-8242-4CA0-AAC7-D9F36C50E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="0" windowWidth="25200" windowHeight="15750" xr2:uid="{E9B96102-A4FB-4450-9649-B2B97C2647D0}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,8 +526,8 @@
         <v>2700</v>
       </c>
       <c r="F2" t="str">
-        <f>"'"&amp;A2&amp;"':Material(vp="&amp;B2&amp;", vs="&amp;C2&amp;", rho="&amp;E2&amp;"),"</f>
-        <v>'Aluminum':Material(vp=2.7, vs=6420, rho=2700),</v>
+        <f>"'"&amp;A2&amp;"':Material(vp="&amp;C2&amp;", vs="&amp;D2&amp;", rho="&amp;E2&amp;"),"</f>
+        <v>'Aluminum':Material(vp=6420, vs=3040, rho=2700),</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -548,8 +548,8 @@
         <v>1870.0000000000002</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F26" si="1">"'"&amp;A3&amp;"':Material(vp="&amp;B3&amp;", vs="&amp;C3&amp;", rho="&amp;E3&amp;"),"</f>
-        <v>'Berylium':Material(vp=1.87, vs=12890, rho=1870),</v>
+        <f t="shared" ref="F3:F26" si="1">"'"&amp;A3&amp;"':Material(vp="&amp;C3&amp;", vs="&amp;D3&amp;", rho="&amp;E3&amp;"),"</f>
+        <v>'Berylium':Material(vp=12890, vs=8880, rho=1870),</v>
       </c>
       <c r="G3" t="str">
         <f>""</f>
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>'Brass':Material(vp=8.6, vs=4700, rho=8600),</v>
+        <v>'Brass':Material(vp=4700, vs=2110, rho=8600),</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>'Copper':Material(vp=8.93, vs=4760, rho=8930),</v>
+        <v>'Copper':Material(vp=4760, vs=2325, rho=8930),</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>'Gold':Material(vp=19.7, vs=3240, rho=19700),</v>
+        <v>'Gold':Material(vp=3240, vs=1200, rho=19700),</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>'Iron':Material(vp=7.85, vs=5960, rho=7850),</v>
+        <v>'Iron':Material(vp=5960, vs=3240, rho=7850),</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>'Lead':Material(vp=11.4, vs=2160, rho=11400),</v>
+        <v>'Lead':Material(vp=2160, vs=700, rho=11400),</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>'Molybdenum':Material(vp=10.1, vs=6250, rho=10100),</v>
+        <v>'Molybdenum':Material(vp=6250, vs=3350, rho=10100),</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>'Nickel':Material(vp=8.85, vs=5480, rho=8850),</v>
+        <v>'Nickel':Material(vp=5480, vs=2990, rho=8850),</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>'Platinum':Material(vp=21.4, vs=3260, rho=21400),</v>
+        <v>'Platinum':Material(vp=3260, vs=1730, rho=21400),</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>'Silver':Material(vp=10.4, vs=3650, rho=10400),</v>
+        <v>'Silver':Material(vp=3650, vs=1610, rho=10400),</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>'Mild steel':Material(vp=7.85, vs=5960, rho=7850),</v>
+        <v>'Mild steel':Material(vp=5960, vs=3235, rho=7850),</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>'Stainless':Material(vp=7.9, vs=5790, rho=7900),</v>
+        <v>'Stainless':Material(vp=5790, vs=3100, rho=7900),</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>'Tin':Material(vp=7.3, vs=3320, rho=7300),</v>
+        <v>'Tin':Material(vp=3320, vs=1670, rho=7300),</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>'Titanium':Material(vp=4.5, vs=6070, rho=4500),</v>
+        <v>'Titanium':Material(vp=6070, vs=3125, rho=4500),</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>'Tungsten':Material(vp=19.3, vs=5220, rho=19300),</v>
+        <v>'Tungsten':Material(vp=5220, vs=2890, rho=19300),</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>'Tungsten Carbide':Material(vp=13.8, vs=6655, rho=13800),</v>
+        <v>'Tungsten Carbide':Material(vp=6655, vs=3980, rho=13800),</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>'Zinc':Material(vp=7.1, vs=4210, rho=7100),</v>
+        <v>'Zinc':Material(vp=4210, vs=2440, rho=7100),</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>'Fused silica':Material(vp=2.2, vs=5968, rho=2200),</v>
+        <v>'Fused silica':Material(vp=5968, vs=3764, rho=2200),</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>'Pyrex':Material(vp=2.32, vs=5640, rho=2320),</v>
+        <v>'Pyrex':Material(vp=5640, vs=3280, rho=2320),</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>'Glass':Material(vp=3.88, vs=3980, rho=3880),</v>
+        <v>'Glass':Material(vp=3980, vs=2380, rho=3880),</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>'Lucite':Material(vp=1.18, vs=2680, rho=1180),</v>
+        <v>'Lucite':Material(vp=2680, vs=1100, rho=1180),</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>'Nylon 6-6':Material(vp=1.11, vs=2620, rho=1110),</v>
+        <v>'Nylon 6-6':Material(vp=2620, vs=1070, rho=1110),</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>'Polyethylene':Material(vp=0.9, vs=1950, rho=900),</v>
+        <v>'Polyethylene':Material(vp=1950, vs=540, rho=900),</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>'Polystyrene':Material(vp=1.06, vs=2350, rho=1060),</v>
+        <v>'Polystyrene':Material(vp=2350, vs=1120, rho=1060),</v>
       </c>
     </row>
   </sheetData>

--- a/SpeedProperties.xlsx
+++ b/SpeedProperties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legos\Py2DFDTD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\Research\Py2DFDTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD280CA-8242-4CA0-AAC7-D9F36C50E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB4BD8-F4F4-481D-9326-8F0299AA4CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="0" windowWidth="25200" windowHeight="15750" xr2:uid="{E9B96102-A4FB-4450-9649-B2B97C2647D0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="15150" xr2:uid="{E9B96102-A4FB-4450-9649-B2B97C2647D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Lucite</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Pyrex</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F26"/>
+      <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +494,7 @@
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="133.42578125" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,6 +513,12 @@
       <c r="E1" t="s">
         <v>27</v>
       </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -529,6 +541,10 @@
         <f>"'"&amp;A2&amp;"':Material(vp="&amp;C2&amp;", vs="&amp;D2&amp;", rho="&amp;E2&amp;"),"</f>
         <v>'Aluminum':Material(vp=6420, vs=3040, rho=2700),</v>
       </c>
+      <c r="G2" t="str">
+        <f>"{'"&amp;A2&amp;"', new ElasticFDTD.Material("&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;")},"</f>
+        <v>{'Aluminum', new ElasticFDTD.Material(6420,3040,2700)},</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -552,8 +568,8 @@
         <v>'Berylium':Material(vp=12890, vs=8880, rho=1870),</v>
       </c>
       <c r="G3" t="str">
-        <f>""</f>
-        <v/>
+        <f t="shared" ref="G3:G26" si="2">"{'"&amp;A3&amp;"', new ElasticFDTD.Material("&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;")},"</f>
+        <v>{'Berylium', new ElasticFDTD.Material(12890,8880,1870)},</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,6 +593,10 @@
         <f t="shared" si="1"/>
         <v>'Brass':Material(vp=4700, vs=2110, rho=8600),</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Brass', new ElasticFDTD.Material(4700,2110,8600)},</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -599,6 +619,10 @@
         <f t="shared" si="1"/>
         <v>'Copper':Material(vp=4760, vs=2325, rho=8930),</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Copper', new ElasticFDTD.Material(4760,2325,8930)},</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -621,6 +645,10 @@
         <f t="shared" si="1"/>
         <v>'Gold':Material(vp=3240, vs=1200, rho=19700),</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Gold', new ElasticFDTD.Material(3240,1200,19700)},</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -643,6 +671,10 @@
         <f t="shared" si="1"/>
         <v>'Iron':Material(vp=5960, vs=3240, rho=7850),</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Iron', new ElasticFDTD.Material(5960,3240,7850)},</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -665,6 +697,10 @@
         <f t="shared" si="1"/>
         <v>'Lead':Material(vp=2160, vs=700, rho=11400),</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Lead', new ElasticFDTD.Material(2160,700,11400)},</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -687,6 +723,10 @@
         <f t="shared" si="1"/>
         <v>'Molybdenum':Material(vp=6250, vs=3350, rho=10100),</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Molybdenum', new ElasticFDTD.Material(6250,3350,10100)},</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -709,6 +749,10 @@
         <f t="shared" si="1"/>
         <v>'Nickel':Material(vp=5480, vs=2990, rho=8850),</v>
       </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Nickel', new ElasticFDTD.Material(5480,2990,8850)},</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -731,6 +775,10 @@
         <f t="shared" si="1"/>
         <v>'Platinum':Material(vp=3260, vs=1730, rho=21400),</v>
       </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Platinum', new ElasticFDTD.Material(3260,1730,21400)},</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -753,6 +801,10 @@
         <f t="shared" si="1"/>
         <v>'Silver':Material(vp=3650, vs=1610, rho=10400),</v>
       </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Silver', new ElasticFDTD.Material(3650,1610,10400)},</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -775,6 +827,10 @@
         <f t="shared" si="1"/>
         <v>'Mild steel':Material(vp=5960, vs=3235, rho=7850),</v>
       </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Mild steel', new ElasticFDTD.Material(5960,3235,7850)},</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -797,6 +853,10 @@
         <f t="shared" si="1"/>
         <v>'Stainless':Material(vp=5790, vs=3100, rho=7900),</v>
       </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Stainless', new ElasticFDTD.Material(5790,3100,7900)},</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -819,6 +879,10 @@
         <f t="shared" si="1"/>
         <v>'Tin':Material(vp=3320, vs=1670, rho=7300),</v>
       </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Tin', new ElasticFDTD.Material(3320,1670,7300)},</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -841,8 +905,12 @@
         <f t="shared" si="1"/>
         <v>'Titanium':Material(vp=6070, vs=3125, rho=4500),</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Titanium', new ElasticFDTD.Material(6070,3125,4500)},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -863,8 +931,12 @@
         <f t="shared" si="1"/>
         <v>'Tungsten':Material(vp=5220, vs=2890, rho=19300),</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Tungsten', new ElasticFDTD.Material(5220,2890,19300)},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -885,8 +957,12 @@
         <f t="shared" si="1"/>
         <v>'Tungsten Carbide':Material(vp=6655, vs=3980, rho=13800),</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Tungsten Carbide', new ElasticFDTD.Material(6655,3980,13800)},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -907,8 +983,12 @@
         <f t="shared" si="1"/>
         <v>'Zinc':Material(vp=4210, vs=2440, rho=7100),</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Zinc', new ElasticFDTD.Material(4210,2440,7100)},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -929,8 +1009,12 @@
         <f t="shared" si="1"/>
         <v>'Fused silica':Material(vp=5968, vs=3764, rho=2200),</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Fused silica', new ElasticFDTD.Material(5968,3764,2200)},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -951,8 +1035,12 @@
         <f t="shared" si="1"/>
         <v>'Pyrex':Material(vp=5640, vs=3280, rho=2320),</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Pyrex', new ElasticFDTD.Material(5640,3280,2320)},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -973,8 +1061,12 @@
         <f t="shared" si="1"/>
         <v>'Glass':Material(vp=3980, vs=2380, rho=3880),</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Glass', new ElasticFDTD.Material(3980,2380,3880)},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1087,12 @@
         <f t="shared" si="1"/>
         <v>'Lucite':Material(vp=2680, vs=1100, rho=1180),</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Lucite', new ElasticFDTD.Material(2680,1100,1180)},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1017,8 +1113,12 @@
         <f t="shared" si="1"/>
         <v>'Nylon 6-6':Material(vp=2620, vs=1070, rho=1110),</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Nylon 6-6', new ElasticFDTD.Material(2620,1070,1110)},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1139,12 @@
         <f t="shared" si="1"/>
         <v>'Polyethylene':Material(vp=1950, vs=540, rho=900),</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Polyethylene', new ElasticFDTD.Material(1950,540,900)},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1060,6 +1164,10 @@
       <c r="F26" t="str">
         <f t="shared" si="1"/>
         <v>'Polystyrene':Material(vp=2350, vs=1120, rho=1060),</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>{'Polystyrene', new ElasticFDTD.Material(2350,1120,1060)},</v>
       </c>
     </row>
   </sheetData>
